--- a/FISHTRADER/ARIMA/db_mt.xlsx
+++ b/FISHTRADER/ARIMA/db_mt.xlsx
@@ -35,8 +35,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -109,7 +110,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -122,7 +123,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,7 +151,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -158,84 +163,84 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>2017</v>
+      <c r="A2" s="3" t="n">
+        <v>43100</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>190.2</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>301961</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2018</v>
+      <c r="A3" s="3" t="n">
+        <v>43465</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>192.9</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>545110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>2019</v>
+      <c r="A4" s="3" t="n">
+        <v>43830</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>194.8</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>1029190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>2020</v>
+      <c r="A5" s="3" t="n">
+        <v>44196</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>197.3</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>1997490</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>2021</v>
+      <c r="A6" s="3" t="n">
+        <v>44561</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>200.8</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>2860097</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>2022</v>
+      <c r="A7" s="3" t="n">
+        <v>44926</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>204.7</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>3209840</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>2023</v>
+      <c r="A8" s="3" t="n">
+        <v>45291</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>208.2</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>4419242</v>
       </c>
     </row>

--- a/FISHTRADER/ARIMA/db_mt.xlsx
+++ b/FISHTRADER/ARIMA/db_mt.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">year</t>
+    <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">value </t>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">liter</t>
@@ -151,7 +151,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
